--- a/Animation & Game Project 1/Manual_Transmission/Asset Schedule.xlsx
+++ b/Animation & Game Project 1/Manual_Transmission/Asset Schedule.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10805383\Documents\JONNY ROGERS\UVUFALL2019\Animation &amp; Game Project 1\Manual_Transmission\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UVUFALL2019\Animation &amp; Game Project 1\Manual_Transmission\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AFE914-04C1-4DC7-B8C3-2F4C482F751F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="34">
   <si>
     <t>Assets</t>
   </si>
@@ -131,7 +132,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -506,12 +507,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +561,7 @@
       <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
@@ -569,7 +570,7 @@
       <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
@@ -596,7 +597,7 @@
       <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">

--- a/Animation & Game Project 1/Manual_Transmission/Asset Schedule.xlsx
+++ b/Animation & Game Project 1/Manual_Transmission/Asset Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UVUFALL2019\Animation &amp; Game Project 1\Manual_Transmission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AFE914-04C1-4DC7-B8C3-2F4C482F751F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E04DD0-C8BF-40EB-AABD-D692A98087CA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>Assets</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t xml:space="preserve">Status </t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Obi Fluid 4 - Asset Store</t>
   </si>
 </sst>
 </file>
@@ -508,11 +514,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,9 +528,10 @@
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -537,24 +544,27 @@
       <c r="E1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -563,7 +573,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>8</v>
       </c>
@@ -572,16 +582,16 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>13</v>
       </c>
@@ -590,7 +600,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>10</v>
       </c>
@@ -599,16 +609,16 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>12</v>
       </c>
@@ -617,42 +627,42 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -661,7 +671,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>26</v>
       </c>
@@ -669,63 +679,66 @@
         <v>20</v>
       </c>
       <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>8</v>
       </c>

--- a/Animation & Game Project 1/Manual_Transmission/Asset Schedule.xlsx
+++ b/Animation & Game Project 1/Manual_Transmission/Asset Schedule.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UVUFALL2019\Animation &amp; Game Project 1\Manual_Transmission\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10805383\Documents\JONNY ROGERS\UVUFALL2019\Animation &amp; Game Project 1\Manual_Transmission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E04DD0-C8BF-40EB-AABD-D692A98087CA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>Assets</t>
   </si>
@@ -133,12 +133,15 @@
   </si>
   <si>
     <t>Obi Fluid 4 - Asset Store</t>
+  </si>
+  <si>
+    <t>Audio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -162,7 +165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,13 +182,58 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCDC233"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -194,10 +242,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -206,6 +260,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99FF"/>
+      <color rgb="FFCDC233"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -513,12 +573,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,279 +609,544 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" t="s">
+      <c r="E20" s="8"/>
+      <c r="F20" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="A23" s="6"/>
+      <c r="B23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
